--- a/inputs/students.xlsx
+++ b/inputs/students.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Авдонина</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">Борисовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гигич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ювовов</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -188,17 +197,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -213,178 +230,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472c4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -393,157 +238,170 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/inputs/students.xlsx
+++ b/inputs/students.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Авдонина</t>
   </si>
@@ -119,6 +119,78 @@
   </si>
   <si>
     <t xml:space="preserve">Ювовов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qqqq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qqq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wwww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Www</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tttt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ttt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zzzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zzz</t>
   </si>
 </sst>
 </file>
@@ -197,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +286,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,15 +298,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,7 +422,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
@@ -262,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
@@ -276,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
@@ -290,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
@@ -304,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
@@ -318,7 +492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>6</v>
       </c>
@@ -332,7 +506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>7</v>
       </c>
@@ -346,7 +520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>8</v>
       </c>
@@ -360,7 +534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>9</v>
       </c>
@@ -374,7 +548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>10</v>
       </c>
@@ -388,8 +562,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -400,6 +574,118 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
